--- a/docs/shr-core-Appointment.xlsx
+++ b/docs/shr-core-Appointment.xlsx
@@ -429,6 +429,16 @@
     <t>The specialty of a practitioner who (should, will, or did) perform a service.</t>
   </si>
   <si>
+    <t>reasonreference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-ReasonReference-extension]]} {[]}
+</t>
+  </si>
+  <si>
+    <t>The justification, as reference to a condition or observation.</t>
+  </si>
+  <si>
     <t>type</t>
   </si>
   <si>
@@ -519,16 +529,6 @@
   </si>
   <si>
     <t>A broad categorization of the service (ordered, planned, or performed).</t>
-  </si>
-  <si>
-    <t>reasonreference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-ReasonReference-extension]]} {[]}
-</t>
-  </si>
-  <si>
-    <t>The justification, as reference to a condition or observation.</t>
   </si>
   <si>
     <t>indication</t>
@@ -2974,7 +2974,7 @@
         <v>41</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>40</v>
@@ -3070,9 +3070,11 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="B19" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
         <v>40</v>
       </c>
@@ -3095,9 +3097,7 @@
       <c r="J19" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="K19" t="s" s="2">
-        <v>61</v>
-      </c>
+      <c r="K19" s="2"/>
       <c r="L19" t="s" s="2">
         <v>137</v>
       </c>
@@ -3150,13 +3150,13 @@
         <v>40</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>40</v>
@@ -3168,7 +3168,7 @@
         <v>40</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>124</v>
+        <v>40</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>40</v>
@@ -3179,7 +3179,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3190,7 +3190,7 @@
         <v>41</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>40</v>
@@ -3202,13 +3202,13 @@
         <v>40</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>66</v>
+        <v>139</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>140</v>
-      </c>
-      <c r="L20" t="s" s="2">
-        <v>141</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -3259,13 +3259,13 @@
         <v>40</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>40</v>
@@ -3277,7 +3277,7 @@
         <v>40</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>40</v>
+        <v>124</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>40</v>
@@ -3288,7 +3288,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3296,10 +3296,10 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>40</v>
@@ -3311,13 +3311,13 @@
         <v>40</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>144</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>145</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -3326,7 +3326,7 @@
       </c>
       <c r="P21" s="2"/>
       <c r="Q21" t="s" s="2">
-        <v>146</v>
+        <v>40</v>
       </c>
       <c r="R21" t="s" s="2">
         <v>40</v>
@@ -3368,13 +3368,13 @@
         <v>40</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>40</v>
@@ -3386,7 +3386,7 @@
         <v>40</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>124</v>
+        <v>40</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>40</v>
@@ -3397,7 +3397,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3420,13 +3420,13 @@
         <v>40</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>149</v>
+        <v>80</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -3435,7 +3435,7 @@
       </c>
       <c r="P22" s="2"/>
       <c r="Q22" t="s" s="2">
-        <v>40</v>
+        <v>149</v>
       </c>
       <c r="R22" t="s" s="2">
         <v>40</v>
@@ -3453,11 +3453,13 @@
         <v>40</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="X22" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="X22" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="Y22" t="s" s="2">
-        <v>153</v>
+        <v>40</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>40</v>
@@ -3475,10 +3477,10 @@
         <v>40</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>50</v>
@@ -3504,20 +3506,18 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="B23" t="s" s="2">
-        <v>155</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
         <v>40</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>40</v>
@@ -3529,11 +3529,13 @@
         <v>40</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="K23" s="2"/>
+        <v>152</v>
+      </c>
+      <c r="K23" t="s" s="2">
+        <v>153</v>
+      </c>
       <c r="L23" t="s" s="2">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -3560,13 +3562,11 @@
         <v>40</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X23" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="X23" s="2"/>
       <c r="Y23" t="s" s="2">
-        <v>40</v>
+        <v>156</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>40</v>
@@ -3584,13 +3584,13 @@
         <v>40</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>125</v>
+        <v>157</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>40</v>
@@ -3602,7 +3602,7 @@
         <v>40</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>40</v>
+        <v>124</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>40</v>
@@ -3626,7 +3626,7 @@
         <v>41</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>40</v>
@@ -3735,7 +3735,7 @@
         <v>41</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>40</v>
@@ -4718,7 +4718,7 @@
         <v>51</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="K34" t="s" s="2">
         <v>200</v>
@@ -4751,7 +4751,7 @@
         <v>40</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="X34" t="s" s="2">
         <v>202</v>
@@ -4823,7 +4823,7 @@
         <v>51</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="K35" t="s" s="2">
         <v>207</v>
@@ -5035,7 +5035,7 @@
         <v>40</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="K37" t="s" s="2">
         <v>222</v>
@@ -5560,7 +5560,7 @@
         <v>40</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="K42" t="s" s="2">
         <v>249</v>
@@ -6091,7 +6091,7 @@
         <v>51</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="K47" t="s" s="2">
         <v>266</v>
